--- a/Proyectos/2016/6/P1727 - Servicio Integral de Ventas, Ilse Ponce Ramos _RN/Ventas/0.1 - BDD CLIENTES ILSE JUNIO 2016 (1).xlsx
+++ b/Proyectos/2016/6/P1727 - Servicio Integral de Ventas, Ilse Ponce Ramos _RN/Ventas/0.1 - BDD CLIENTES ILSE JUNIO 2016 (1).xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ILSE\Dropbox\ENFOQUE i\RICARDO NOVELA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\SOSQTP\Proyectos\2016\6\P1727 - Servicio Integral de Ventas, Ilse Ponce Ramos _RN\Ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4455" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1016,7 +1019,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1026,7 +1051,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1039,7 +1069,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1307,10 +1337,10 @@
       <pane xSplit="43" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AR1" sqref="AR1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AR2" sqref="AR2"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -7713,7 +7743,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:CN36">
-    <sortCondition sortBy="cellColor" ref="A2:A36" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="A2:A36" dxfId="2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
